--- a/Abdo/Autonomous-A.xlsx
+++ b/Abdo/Autonomous-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Autonomous_A\Truck-Platooning-Group_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELE_4\Autonomous_A\Truck-Platooning-Group_B\Abdo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043225B9-604A-4D69-92FE-59C07045559E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2F9C8-65B5-4BBA-B5C0-17871416F5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Status</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>pending</t>
   </si>
   <si>
     <t>ML-Tasks</t>
@@ -256,21 +253,6 @@
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -280,13 +262,10 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +279,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +603,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -615,30 +612,30 @@
     <col min="2" max="2" width="12.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68.6328125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="68.6328125" style="16" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>7</v>
+      <c r="E1" s="12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -646,87 +643,87 @@
       <c r="C2" s="8">
         <v>45779</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="11">
         <v>45779</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>9</v>
+      <c r="A3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="21">
         <v>45783</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>45785</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
+      <c r="A5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="21">
         <v>45784</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="19" t="s">
-        <v>17</v>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="23" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -734,104 +731,104 @@
       <c r="B9" s="4"/>
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="20"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="20"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="20"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
